--- a/Estimacion_RecursosIT.xlsx
+++ b/Estimacion_RecursosIT.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="8_{06480F3B-2A96-4930-9908-80A0B7FF9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A351E25-9789-4A64-AA67-B0C5A519687F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="15720" xr2:uid="{D29FF583-8762-4A54-ACC8-8830C75E8C5A}"/>
+    <workbookView minimized="1" xWindow="465" yWindow="3900" windowWidth="9180" windowHeight="4230" xr2:uid="{D29FF583-8762-4A54-ACC8-8830C75E8C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104CE6BE-0EA9-4552-A95B-75EA76BE6FD1}">
   <dimension ref="A1:AU271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
